--- a/hebrewOutputs/hebrew82Comperation_12_Common_alpha=0.36.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_12_Common_alpha=0.36.xlsx
@@ -277,49 +277,49 @@
     <t>כי,</t>
   </si>
   <si>
+    <t>כמו שאמרתי התוצאות של הבדיקות, לא היו כל כך בסדר. אא,</t>
+  </si>
+  <si>
+    <t>מדאיגות?</t>
+  </si>
+  <si>
+    <t>אז אני אז אני לקרוא לבעלי או לא? אני עכשיו כבר לא כל כך יודעת.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אני מנסה להבין. מה מה קרה? </t>
+  </si>
+  <si>
+    <t>אא,</t>
+  </si>
+  <si>
+    <t>וואוו.</t>
+  </si>
+  <si>
+    <t>התוצאות שהיו לנו אא בבדיקות הם הם אומרים לנו שרונן- שיואב,</t>
+  </si>
+  <si>
+    <t>הבן שלי יואב.</t>
+  </si>
+  <si>
+    <t>יואב הם,</t>
+  </si>
+  <si>
+    <t>יואב הוא ילד בן חמש.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כן ילד בן חמש. </t>
+  </si>
+  <si>
+    <t>מה מצאו? מה קרה?</t>
+  </si>
+  <si>
+    <t>יש לו סכרת.</t>
+  </si>
+  <si>
+    <t>מה יש לו?</t>
+  </si>
+  <si>
     <t>[?]med</t>
-  </si>
-  <si>
-    <t>כמו שאמרתי התוצאות של הבדיקות, לא היו כל כך בסדר. אא,</t>
-  </si>
-  <si>
-    <t>מדאיגות?</t>
-  </si>
-  <si>
-    <t>אז אני אז אני לקרוא לבעלי או לא? אני עכשיו כבר לא כל כך יודעת.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> אני מנסה להבין. מה מה קרה? </t>
-  </si>
-  <si>
-    <t>אא,</t>
-  </si>
-  <si>
-    <t>וואוו.</t>
-  </si>
-  <si>
-    <t>התוצאות שהיו לנו אא בבדיקות הם הם אומרים לנו שרונן- שיואב,</t>
-  </si>
-  <si>
-    <t>הבן שלי יואב.</t>
-  </si>
-  <si>
-    <t>יואב הם,</t>
-  </si>
-  <si>
-    <t>יואב הוא ילד בן חמש.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כן ילד בן חמש. </t>
-  </si>
-  <si>
-    <t>מה מצאו? מה קרה?</t>
-  </si>
-  <si>
-    <t>יש לו סכרת.</t>
-  </si>
-  <si>
-    <t>מה יש לו?</t>
   </si>
   <si>
     <t>סכרת. סכרת נעורים זה אחד מסוגי הסכרת שעלול גם לגרום לילדים קטנים זה להופיע בגיל הזה אא זה ...</t>
@@ -834,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1212,7 +1212,7 @@
         <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -1366,7 +1366,7 @@
         <v>22</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1478,7 +1478,7 @@
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -1688,7 +1688,7 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -1696,13 +1696,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
         <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -1710,13 +1710,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
         <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
         <v>27</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
@@ -1766,13 +1766,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
         <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
@@ -1822,13 +1822,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s">
         <v>22</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
         <v>27</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
         <v>44</v>
@@ -1878,13 +1878,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -2007,7 +2007,7 @@
         <v>110</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -2049,7 +2049,7 @@
         <v>114</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C90" t="s">
         <v>40</v>
@@ -2066,7 +2066,7 @@
         <v>44</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2206,7 +2206,7 @@
         <v>27</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -2234,7 +2234,7 @@
         <v>27</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D103" t="s">
         <v>7</v>
@@ -2388,7 +2388,7 @@
         <v>27</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -2441,7 +2441,7 @@
         <v>142</v>
       </c>
       <c r="B118" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
@@ -2458,7 +2458,7 @@
         <v>22</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -2469,10 +2469,10 @@
         <v>143</v>
       </c>
       <c r="B120" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C120" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D120" t="s">
         <v>7</v>
@@ -2528,7 +2528,7 @@
         <v>48</v>
       </c>
       <c r="C124" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
